--- a/estudoEstacaoSeca/Calculos/dados_analise_area_preservada3.xlsx
+++ b/estudoEstacaoSeca/Calculos/dados_analise_area_preservada3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>45.88794926004223</v>
+        <v>37.85835095137561</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>45.7758985200845</v>
+        <v>37.81304741769998</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>45.66384778012679</v>
+        <v>37.76774388402436</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>45.55179704016908</v>
+        <v>37.72244035034872</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>45.43974630021134</v>
+        <v>37.67713681667308</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>45.32769556025363</v>
+        <v>37.63183328299746</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>45.21564482029592</v>
+        <v>37.58652974932183</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>45.10359408033818</v>
+        <v>37.5412262156462</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>44.99154334038047</v>
+        <v>37.49592268197057</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>44.87949260042274</v>
+        <v>37.45061914829493</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>44.76744186046503</v>
+        <v>37.40531561461931</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>44.65539112050732</v>
+        <v>37.36001208094368</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>44.54334038054958</v>
+        <v>37.31470854726805</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>44.43128964059187</v>
+        <v>37.26940501359242</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>44.31923890063416</v>
+        <v>37.2241014799168</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>44.20718816067642</v>
+        <v>37.17879794624116</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>44.09513742071871</v>
+        <v>37.13349441256553</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>43.98308668076101</v>
+        <v>37.0881908788899</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>43.87103594080327</v>
+        <v>37.04288734521427</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>43.75898520084556</v>
+        <v>36.99758381153865</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>43.64693446088785</v>
+        <v>36.95228027786301</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>43.53488372093011</v>
+        <v>36.90697674418739</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>43.4228329809724</v>
+        <v>36.86167321051175</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>43.31078224101469</v>
+        <v>36.81636967683612</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>43.19873150105695</v>
+        <v>36.7710661431605</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>43.08668076109925</v>
+        <v>36.72576260948486</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C28" t="n">
-        <v>42.97463002114151</v>
+        <v>36.68045907580924</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n">
-        <v>42.8625792811838</v>
+        <v>36.6351555421336</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C30" t="n">
-        <v>42.75052854122609</v>
+        <v>36.58985200845798</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" t="n">
-        <v>42.63847780126835</v>
+        <v>36.54454847478235</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C32" t="n">
-        <v>42.52642706131064</v>
+        <v>36.49924494110671</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C33" t="n">
-        <v>42.41437632135293</v>
+        <v>36.45394140743109</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>42.30232558139519</v>
+        <v>36.40863787375545</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>42.19027484143749</v>
+        <v>36.36333434007983</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>42.07822410147978</v>
+        <v>36.3180308064042</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>41.96617336152204</v>
+        <v>36.27272727272856</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="n">
-        <v>41.85412262156433</v>
+        <v>36.22742373905294</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" t="n">
-        <v>41.74207188160662</v>
+        <v>36.1821202053773</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C40" t="n">
-        <v>41.63002114164888</v>
+        <v>36.13681667170168</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C41" t="n">
-        <v>41.51797040169117</v>
+        <v>36.09151313802604</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C42" t="n">
-        <v>41.40591966173346</v>
+        <v>36.04620960435042</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>2022</v>
       </c>
       <c r="B43" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="n">
-        <v>41.29386892177573</v>
+        <v>36.00090607067479</v>
       </c>
     </row>
     <row r="44">
@@ -917,483 +917,10 @@
         <v>2023</v>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" t="n">
-        <v>41.18181818181802</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1981</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>45.88794926004223</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1982</v>
-      </c>
-      <c r="B46" t="n">
-        <v>46</v>
-      </c>
-      <c r="C46" t="n">
-        <v>45.7758985200845</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B47" t="n">
-        <v>38</v>
-      </c>
-      <c r="C47" t="n">
-        <v>45.66384778012679</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1984</v>
-      </c>
-      <c r="B48" t="n">
-        <v>48</v>
-      </c>
-      <c r="C48" t="n">
-        <v>45.55179704016908</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B49" t="n">
-        <v>50</v>
-      </c>
-      <c r="C49" t="n">
-        <v>45.43974630021134</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1986</v>
-      </c>
-      <c r="B50" t="n">
-        <v>44</v>
-      </c>
-      <c r="C50" t="n">
-        <v>45.32769556025363</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1987</v>
-      </c>
-      <c r="B51" t="n">
-        <v>39</v>
-      </c>
-      <c r="C51" t="n">
-        <v>45.21564482029592</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1988</v>
-      </c>
-      <c r="B52" t="n">
-        <v>47</v>
-      </c>
-      <c r="C52" t="n">
-        <v>45.10359408033818</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B53" t="n">
-        <v>45</v>
-      </c>
-      <c r="C53" t="n">
-        <v>44.99154334038047</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B54" t="n">
-        <v>42</v>
-      </c>
-      <c r="C54" t="n">
-        <v>44.87949260042274</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B55" t="n">
-        <v>42</v>
-      </c>
-      <c r="C55" t="n">
-        <v>44.76744186046503</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B56" t="n">
-        <v>48</v>
-      </c>
-      <c r="C56" t="n">
-        <v>44.65539112050732</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1993</v>
-      </c>
-      <c r="B57" t="n">
-        <v>54</v>
-      </c>
-      <c r="C57" t="n">
-        <v>44.54334038054958</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1994</v>
-      </c>
-      <c r="B58" t="n">
-        <v>48</v>
-      </c>
-      <c r="C58" t="n">
-        <v>44.43128964059187</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B59" t="n">
-        <v>48</v>
-      </c>
-      <c r="C59" t="n">
-        <v>44.31923890063416</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1996</v>
-      </c>
-      <c r="B60" t="n">
-        <v>36</v>
-      </c>
-      <c r="C60" t="n">
-        <v>44.20718816067642</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B61" t="n">
-        <v>44</v>
-      </c>
-      <c r="C61" t="n">
-        <v>44.09513742071871</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B62" t="n">
-        <v>53</v>
-      </c>
-      <c r="C62" t="n">
-        <v>43.98308668076101</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B63" t="n">
-        <v>31</v>
-      </c>
-      <c r="C63" t="n">
-        <v>43.87103594080327</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B64" t="n">
-        <v>44</v>
-      </c>
-      <c r="C64" t="n">
-        <v>43.75898520084556</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B65" t="n">
-        <v>39</v>
-      </c>
-      <c r="C65" t="n">
-        <v>43.64693446088785</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B66" t="n">
-        <v>42</v>
-      </c>
-      <c r="C66" t="n">
-        <v>43.53488372093011</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B67" t="n">
-        <v>47</v>
-      </c>
-      <c r="C67" t="n">
-        <v>43.4228329809724</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B68" t="n">
-        <v>52</v>
-      </c>
-      <c r="C68" t="n">
-        <v>43.31078224101469</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B69" t="n">
-        <v>37</v>
-      </c>
-      <c r="C69" t="n">
-        <v>43.19873150105695</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B70" t="n">
-        <v>47</v>
-      </c>
-      <c r="C70" t="n">
-        <v>43.08668076109925</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B71" t="n">
-        <v>54</v>
-      </c>
-      <c r="C71" t="n">
-        <v>42.97463002114151</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B72" t="n">
-        <v>40</v>
-      </c>
-      <c r="C72" t="n">
-        <v>42.8625792811838</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B73" t="n">
-        <v>41</v>
-      </c>
-      <c r="C73" t="n">
-        <v>42.75052854122609</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B74" t="n">
-        <v>43</v>
-      </c>
-      <c r="C74" t="n">
-        <v>42.63847780126835</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B75" t="n">
-        <v>47</v>
-      </c>
-      <c r="C75" t="n">
-        <v>42.52642706131064</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B76" t="n">
-        <v>50</v>
-      </c>
-      <c r="C76" t="n">
-        <v>42.41437632135293</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B77" t="n">
-        <v>42</v>
-      </c>
-      <c r="C77" t="n">
-        <v>42.30232558139519</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B78" t="n">
-        <v>36</v>
-      </c>
-      <c r="C78" t="n">
-        <v>42.19027484143749</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B79" t="n">
-        <v>35</v>
-      </c>
-      <c r="C79" t="n">
-        <v>42.07822410147978</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B80" t="n">
-        <v>44</v>
-      </c>
-      <c r="C80" t="n">
-        <v>41.96617336152204</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B81" t="n">
-        <v>34</v>
-      </c>
-      <c r="C81" t="n">
-        <v>41.85412262156433</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B82" t="n">
-        <v>48</v>
-      </c>
-      <c r="C82" t="n">
-        <v>41.74207188160662</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B83" t="n">
-        <v>48</v>
-      </c>
-      <c r="C83" t="n">
-        <v>41.63002114164888</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B84" t="n">
-        <v>40</v>
-      </c>
-      <c r="C84" t="n">
-        <v>41.51797040169117</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B85" t="n">
-        <v>41</v>
-      </c>
-      <c r="C85" t="n">
-        <v>41.40591966173346</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B86" t="n">
-        <v>36</v>
-      </c>
-      <c r="C86" t="n">
-        <v>41.29386892177573</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B87" t="n">
-        <v>38</v>
-      </c>
-      <c r="C87" t="n">
-        <v>41.18181818181802</v>
+        <v>35.95560253699915</v>
       </c>
     </row>
   </sheetData>

--- a/estudoEstacaoSeca/Calculos/dados_analise_area_preservada3.xlsx
+++ b/estudoEstacaoSeca/Calculos/dados_analise_area_preservada3.xlsx
@@ -455,10 +455,10 @@
         <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>37.85835095137561</v>
+        <v>37.58773784354966</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>37.81304741769998</v>
+        <v>37.63726970703502</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>37.76774388402436</v>
+        <v>37.68680157052036</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>37.72244035034872</v>
+        <v>37.73633343400572</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>37.67713681667308</v>
+        <v>37.78586529749107</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>37.63183328299746</v>
+        <v>37.83539716097641</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>37.58652974932183</v>
+        <v>37.88492902446177</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>37.5412262156462</v>
+        <v>37.93446088794713</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>37.49592268197057</v>
+        <v>37.98399275143247</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>37.45061914829493</v>
+        <v>38.03352461491782</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>37.40531561461931</v>
+        <v>38.08305647840318</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>37.36001208094368</v>
+        <v>38.13258834188852</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>37.31470854726805</v>
+        <v>38.18212020537388</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>37.26940501359242</v>
+        <v>38.23165206885923</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>37.2241014799168</v>
+        <v>38.28118393234458</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>37.17879794624116</v>
+        <v>38.33071579582993</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>37.13349441256553</v>
+        <v>38.38024765931529</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>37.0881908788899</v>
+        <v>38.42977952280063</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>37.04288734521427</v>
+        <v>38.47931138628599</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>36.99758381153865</v>
+        <v>38.52884324977134</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
-        <v>36.95228027786301</v>
+        <v>38.57837511325668</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
-        <v>36.90697674418739</v>
+        <v>38.62790697674204</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>36.86167321051175</v>
+        <v>38.6774388402274</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>36.81636967683612</v>
+        <v>38.72697070371274</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" t="n">
-        <v>36.7710661431605</v>
+        <v>38.77650256719809</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" t="n">
-        <v>36.72576260948486</v>
+        <v>38.82603443068345</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
-        <v>36.68045907580924</v>
+        <v>38.87556629416879</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29" t="n">
-        <v>36.6351555421336</v>
+        <v>38.92509815765415</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" t="n">
-        <v>36.58985200845798</v>
+        <v>38.9746300211395</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>36.54454847478235</v>
+        <v>39.02416188462485</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="n">
-        <v>36.49924494110671</v>
+        <v>39.0736937481102</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>36.45394140743109</v>
+        <v>39.12322561159556</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>36.40863787375545</v>
+        <v>39.1727574750809</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C35" t="n">
-        <v>36.36333434007983</v>
+        <v>39.22228933856626</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" t="n">
-        <v>36.3180308064042</v>
+        <v>39.27182120205161</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>36.27272727272856</v>
+        <v>39.32135306553695</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>36.22742373905294</v>
+        <v>39.37088492902231</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>36.1821202053773</v>
+        <v>39.42041679250767</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C40" t="n">
-        <v>36.13681667170168</v>
+        <v>39.46994865599302</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>36.09151313802604</v>
+        <v>39.51948051947836</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C42" t="n">
-        <v>36.04620960435042</v>
+        <v>39.56901238296372</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>2022</v>
       </c>
       <c r="B43" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" t="n">
-        <v>36.00090607067479</v>
+        <v>39.61854424644908</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>2023</v>
       </c>
       <c r="B44" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>35.95560253699915</v>
+        <v>39.66807610993442</v>
       </c>
     </row>
   </sheetData>
